--- a/Data/Level/Level_0.xlsx
+++ b/Data/Level/Level_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Howest\2DAE_2023\Programming4\Projects\GameEngine\Data\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5B4082-0A00-45B3-A709-0E476B0FC1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1DECA3-F89B-4BFF-8050-F4D6CD366A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelLayout0" sheetId="1" r:id="rId1"/>
@@ -889,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AZ28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AD8"/>
+      <selection activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,7 +901,7 @@
     <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -971,8 +971,92 @@
       <c r="W1" s="1">
         <v>0</v>
       </c>
+      <c r="Y1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1042,8 +1126,92 @@
       <c r="W2" s="1">
         <v>0</v>
       </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1113,8 +1281,92 @@
       <c r="W3" s="1">
         <v>0</v>
       </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1184,8 +1436,92 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1255,8 +1591,92 @@
       <c r="W5" s="1">
         <v>0</v>
       </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1326,8 +1746,92 @@
       <c r="W6" s="1">
         <v>0</v>
       </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1397,8 +1901,92 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1468,8 +2056,92 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1539,8 +2211,92 @@
       <c r="W9" s="1">
         <v>0</v>
       </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1610,8 +2366,92 @@
       <c r="W10" s="1">
         <v>0</v>
       </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1681,8 +2521,92 @@
       <c r="W11" s="1">
         <v>0</v>
       </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1752,8 +2676,92 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1823,8 +2831,92 @@
       <c r="W13" s="1">
         <v>0</v>
       </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1894,8 +2986,92 @@
       <c r="W14" s="1">
         <v>0</v>
       </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1965,8 +3141,92 @@
       <c r="W15" s="1">
         <v>0</v>
       </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2036,8 +3296,92 @@
       <c r="W16" s="1">
         <v>0</v>
       </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2107,8 +3451,92 @@
       <c r="W17" s="1">
         <v>0</v>
       </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2178,8 +3606,92 @@
       <c r="W18" s="1">
         <v>0</v>
       </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2249,8 +3761,92 @@
       <c r="W19" s="1">
         <v>0</v>
       </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2320,8 +3916,92 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2391,8 +4071,92 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2462,8 +4226,92 @@
       <c r="W22" s="1">
         <v>0</v>
       </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2531,11 +4379,525 @@
         <v>0</v>
       </c>
       <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:W23">
+  <conditionalFormatting sqref="A1:W23 Y1:AZ28">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>

--- a/Data/Level/Level_0.xlsx
+++ b/Data/Level/Level_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Howest\2DAE_2023\Programming4\Projects\GameEngine\Data\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1DECA3-F89B-4BFF-8050-F4D6CD366A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D224E7-F672-4B55-B879-E66BA375FEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelLayout0" sheetId="1" r:id="rId1"/>
@@ -889,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ28"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF9" sqref="BF9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,7 +901,7 @@
     <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -971,6 +971,9 @@
       <c r="W1" s="1">
         <v>0</v>
       </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
       <c r="Y1" s="1">
         <v>0</v>
       </c>
@@ -983,80 +986,8 @@
       <c r="AB1" s="1">
         <v>0</v>
       </c>
-      <c r="AC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1091,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1">
         <v>2</v>
@@ -1100,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
@@ -1118,100 +1049,31 @@
         <v>2</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1">
         <v>2</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1">
         <v>2</v>
       </c>
       <c r="AA2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1219,40 +1081,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -1261,28 +1123,31 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
         <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1">
         <v>2</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1">
         <v>2</v>
@@ -1291,82 +1156,10 @@
         <v>2</v>
       </c>
       <c r="AB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1374,19 +1167,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1398,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -1410,10 +1203,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
@@ -1422,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="S4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>2</v>
@@ -1436,6 +1229,9 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
       <c r="Y4" s="1">
         <v>0</v>
       </c>
@@ -1448,80 +1244,8 @@
       <c r="AB4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1532,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1541,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1550,28 +1274,28 @@
         <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="1">
         <v>2</v>
@@ -1580,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="1">
         <v>2</v>
@@ -1591,6 +1315,9 @@
       <c r="W5" s="1">
         <v>0</v>
       </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
       <c r="Y5" s="1">
         <v>0</v>
       </c>
@@ -1603,80 +1330,8 @@
       <c r="AB5" s="1">
         <v>0</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1684,10 +1339,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1696,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1708,10 +1363,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -1732,13 +1387,13 @@
         <v>2</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="1">
         <v>2</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="1">
         <v>2</v>
@@ -1746,6 +1401,9 @@
       <c r="W6" s="1">
         <v>0</v>
       </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -1758,80 +1416,8 @@
       <c r="AB6" s="1">
         <v>0</v>
       </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1839,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1860,34 +1446,34 @@
         <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
         <v>2</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1">
         <v>2</v>
@@ -1901,6 +1487,9 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -1911,82 +1500,10 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1994,22 +1511,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -2018,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -2030,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>2</v>
@@ -2042,20 +1559,23 @@
         <v>2</v>
       </c>
       <c r="S8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
       </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -2066,114 +1586,42 @@
         <v>2</v>
       </c>
       <c r="AB8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -2182,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -2191,26 +1639,29 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
       </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -2223,80 +1674,8 @@
       <c r="AB9" s="1">
         <v>0</v>
       </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2304,16 +1683,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2328,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
@@ -2358,16 +1737,19 @@
         <v>2</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" s="1">
         <v>2</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="1">
         <v>2</v>
@@ -2376,82 +1758,10 @@
         <v>2</v>
       </c>
       <c r="AB10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2459,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -2474,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
@@ -2486,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
         <v>2</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1">
         <v>2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
@@ -2513,16 +1823,19 @@
         <v>2</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" s="1">
         <v>2</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1">
         <v>2</v>
@@ -2531,82 +1844,10 @@
         <v>2</v>
       </c>
       <c r="AB11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2614,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2626,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
@@ -2641,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1">
         <v>2</v>
@@ -2653,115 +1894,46 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" s="1">
         <v>2</v>
       </c>
       <c r="U12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2769,10 +1941,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2781,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2796,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
         <v>2</v>
@@ -2808,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="1">
         <v>2</v>
@@ -2826,97 +1998,28 @@
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2972,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="1">
         <v>2</v>
@@ -2984,10 +2087,13 @@
         <v>2</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="1">
         <v>2</v>
@@ -2996,82 +2102,10 @@
         <v>2</v>
       </c>
       <c r="AB14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -3079,70 +2113,73 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <v>2</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="1">
         <v>2</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
         <v>2</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1">
         <v>2</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="1">
         <v>2</v>
@@ -3153,80 +2190,8 @@
       <c r="AB15" s="1">
         <v>0</v>
       </c>
-      <c r="AC15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -3234,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3246,10 +2211,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -3258,22 +2223,22 @@
         <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
         <v>2</v>
@@ -3282,20 +2247,23 @@
         <v>2</v>
       </c>
       <c r="S16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -3308,80 +2276,8 @@
       <c r="AB16" s="1">
         <v>0</v>
       </c>
-      <c r="AC16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -3389,28 +2285,28 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -3422,35 +2318,38 @@
         <v>2</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -3463,80 +2362,8 @@
       <c r="AB17" s="1">
         <v>0</v>
       </c>
-      <c r="AC17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -3544,22 +2371,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -3568,22 +2395,22 @@
         <v>2</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
         <v>2</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
         <v>2</v>
@@ -3595,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="T18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" s="1">
         <v>2</v>
@@ -3604,10 +2431,13 @@
         <v>2</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X18" s="1">
+        <v>2</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="1">
         <v>2</v>
@@ -3618,80 +2448,8 @@
       <c r="AB18" s="1">
         <v>0</v>
       </c>
-      <c r="AC18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -3699,28 +2457,28 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -3732,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -3744,25 +2502,28 @@
         <v>2</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="1">
         <v>2</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="1">
         <v>2</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z19" s="1">
         <v>2</v>
@@ -3773,80 +2534,8 @@
       <c r="AB19" s="1">
         <v>0</v>
       </c>
-      <c r="AC19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3857,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -3866,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -3878,10 +2567,10 @@
         <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
         <v>2</v>
@@ -3890,32 +2579,35 @@
         <v>2</v>
       </c>
       <c r="O20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <v>2</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
       </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -3928,97 +2620,25 @@
       <c r="AB20" s="1">
         <v>0</v>
       </c>
-      <c r="AC20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4030,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -4042,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -4051,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -4060,17 +2680,20 @@
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
       </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -4083,80 +2706,8 @@
       <c r="AB21" s="1">
         <v>0</v>
       </c>
-      <c r="AC21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ21" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -4188,10 +2739,10 @@
         <v>2</v>
       </c>
       <c r="K22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
@@ -4200,19 +2751,19 @@
         <v>2</v>
       </c>
       <c r="O22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
         <v>2</v>
@@ -4221,11 +2772,14 @@
         <v>2</v>
       </c>
       <c r="V22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
       </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
@@ -4236,111 +2790,39 @@
         <v>2</v>
       </c>
       <c r="AB22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -4349,40 +2831,43 @@
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X23" s="1">
+        <v>2</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z23" s="1">
         <v>2</v>
@@ -4391,84 +2876,84 @@
         <v>2</v>
       </c>
       <c r="AB23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>2</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2</v>
+      </c>
+      <c r="X24" s="1">
+        <v>2</v>
+      </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="1">
         <v>2</v>
@@ -4479,80 +2964,80 @@
       <c r="AB24" s="1">
         <v>0</v>
       </c>
-      <c r="AC24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ24" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
@@ -4565,82 +3050,82 @@
       <c r="AB25" s="1">
         <v>0</v>
       </c>
-      <c r="AC25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>2</v>
+      </c>
+      <c r="W26" s="1">
+        <v>2</v>
+      </c>
+      <c r="X26" s="1">
+        <v>2</v>
+      </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="1">
         <v>2</v>
@@ -4649,84 +3134,84 @@
         <v>2</v>
       </c>
       <c r="AB26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1">
+        <v>2</v>
+      </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="1">
         <v>2</v>
@@ -4735,82 +3220,82 @@
         <v>2</v>
       </c>
       <c r="AB27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
@@ -4821,83 +3306,11 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:W23 Y1:AZ28">
+  <conditionalFormatting sqref="A1:AB28">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
